--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions2013.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions2013.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.002*"exchange" + 0.001*"foreign" + 0.001*"rate" + 0.001*"arrangement" + 0.001*"monetary" + 0.001*"fund" + 0.001*"bank" + 0.001*"country" + 0.001*"measure" + 0.001*"imf"</t>
-  </si>
-  <si>
-    <t>0.005*"exchange" + 0.003*"rate" + 0.002*"foreign" + 0.002*"monetary" + 0.002*"transaction" + 0.002*"bank" + 0.001*"arrangement" + 0.001*"country" + 0.001*"fund" + 0.001*"imf"</t>
-  </si>
-  <si>
-    <t>0.001*"exchange" + 0.001*"foreign" + 0.001*"rate" + 0.000*"bank" + 0.000*"monetary" + 0.000*"market" + 0.000*"report" + 0.000*"country" + 0.000*"arrangement" + 0.000*"payment"</t>
-  </si>
-  <si>
-    <t>0.001*"exchange" + 0.001*"rate" + 0.001*"monetary" + 0.001*"bank" + 0.001*"country" + 0.001*"foreign" + 0.001*"arrangement" + 0.001*"fund" + 0.001*"measure" + 0.001*"international"</t>
-  </si>
-  <si>
-    <t>0.030*"exchange" + 0.016*"rate" + 0.016*"foreign" + 0.012*"bank" + 0.012*"monetary" + 0.011*"arrangement" + 0.010*"country" + 0.009*"international" + 0.008*"fund" + 0.008*"currency"</t>
+    <t>0.027*"exchange" + 0.022*"bank" + 0.022*"foreign" + 0.016*"auction" + 0.015*"rate" + 0.013*"central" + 0.010*"currency" + 0.010*"number" + 0.010*"may" + 0.010*"u"</t>
+  </si>
+  <si>
+    <t>0.023*"foreign" + 0.017*"import" + 0.014*"bank" + 0.014*"account" + 0.013*"requirement" + 0.013*"nonresident" + 0.013*"currency" + 0.012*"resident" + 0.010*"abroad" + 0.010*"exchange"</t>
+  </si>
+  <si>
+    <t>0.030*"exchange" + 0.021*"imf" + 0.020*"rate" + 0.017*"effective" + 0.016*"country" + 0.016*"report" + 0.014*"policy" + 0.012*"foreign" + 0.011*"staff" + 0.009*"monetary"</t>
+  </si>
+  <si>
+    <t>0.061*"exchange" + 0.036*"arrangement" + 0.033*"rate" + 0.020*"country" + 0.018*"transaction" + 0.015*"market" + 0.015*"foreign" + 0.014*"restriction" + 0.014*"article" + 0.012*"payment"</t>
+  </si>
+  <si>
+    <t>0.047*"monetary" + 0.042*"international" + 0.042*"fund" + 0.024*"ease" + 0.020*"measure" + 0.019*"tighten" + 0.016*"tober" + 0.016*"oc" + 0.014*"bank" + 0.013*"financial"</t>
   </si>
 </sst>
 </file>
